--- a/common/RoleExpression.xlsx
+++ b/common/RoleExpression.xlsx
@@ -26,10 +26,11 @@
 4=含羞</t>
   </si>
   <si>
-    <t>立绘id</t>
+    <t>表情路径</t>
   </si>
   <si>
-    <t>表情路径</t>
+    <t>备注对应立绘
+无作用</t>
   </si>
   <si>
     <r>
@@ -104,38 +105,6 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>role_portray_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>expression_path</t>
     </r>
     <r>
@@ -159,6 +128,22 @@
       <t>string</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">remark </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -166,9 +151,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -193,6 +178,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -200,83 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +243,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -299,15 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,14 +292,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,103 +356,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,73 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +560,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -589,28 +589,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +603,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,18 +648,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,15 +1146,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="89" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1201,18 +1186,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
